--- a/티어 최신근황.xlsx
+++ b/티어 최신근황.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echong\Desktop\롤 내전 밸런스 개발\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D623B5-15D5-42A2-B5CE-2714CF5ACF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C4AA23-986C-405F-BEC9-1B4783E8528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FBD8FB0-9676-43A8-A731-164A235E95D8}"/>
+    <workbookView xWindow="28680" yWindow="-300" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{5FBD8FB0-9676-43A8-A731-164A235E95D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="104">
   <si>
     <t>실명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +225,222 @@
   </si>
   <si>
     <t>정글 / 탑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멈뭄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멈뭄[지인]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서폿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챔피언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트록스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카사딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아펠리오스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룰루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아칼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세주아니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리스타나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이즈리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카르마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말파이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코르키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오로라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렐리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크산테</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅토르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4경기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,16 +464,68 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -325,13 +594,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +626,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379C166E-2C31-4130-92ED-06D562F44A64}">
   <dimension ref="B3:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -941,4 +1249,1264 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C492D5-B3A0-4381-9F68-E07B327DE8E9}">
+  <dimension ref="A2:J53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9">
+        <v>8</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
+        <v>147</v>
+      </c>
+      <c r="J4" s="9">
+        <v>16676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="9">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9">
+        <v>13</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>174</v>
+      </c>
+      <c r="J5" s="9">
+        <v>20649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>7</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
+        <v>194</v>
+      </c>
+      <c r="J6" s="9">
+        <v>25361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="9">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
+        <v>239</v>
+      </c>
+      <c r="J7" s="9">
+        <v>25787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>17</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <v>34</v>
+      </c>
+      <c r="J8" s="9">
+        <v>6174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10">
+        <v>187</v>
+      </c>
+      <c r="J10" s="10">
+        <v>27171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="10">
+        <v>4</v>
+      </c>
+      <c r="F11" s="10">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10">
+        <v>6</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10">
+        <v>164</v>
+      </c>
+      <c r="J11" s="10">
+        <v>14784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="10">
+        <v>4</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
+        <v>201</v>
+      </c>
+      <c r="J12" s="10">
+        <v>24173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3</v>
+      </c>
+      <c r="F13" s="10">
+        <v>6</v>
+      </c>
+      <c r="G13" s="10">
+        <v>4</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10">
+        <v>190</v>
+      </c>
+      <c r="J13" s="10">
+        <v>20526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>9</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10">
+        <v>36</v>
+      </c>
+      <c r="J14" s="10">
+        <v>8830</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="9">
+        <v>7</v>
+      </c>
+      <c r="F17" s="9">
+        <v>6</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9">
+        <v>181</v>
+      </c>
+      <c r="J17" s="9">
+        <v>26282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="9">
+        <v>3</v>
+      </c>
+      <c r="F18" s="9">
+        <v>5</v>
+      </c>
+      <c r="G18" s="9">
+        <v>6</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9">
+        <v>161</v>
+      </c>
+      <c r="J18" s="9">
+        <v>8625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9">
+        <v>9</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9">
+        <v>203</v>
+      </c>
+      <c r="J19" s="9">
+        <v>19401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4</v>
+      </c>
+      <c r="F20" s="9">
+        <v>7</v>
+      </c>
+      <c r="G20" s="9">
+        <v>4</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9">
+        <v>224</v>
+      </c>
+      <c r="J20" s="9">
+        <v>8214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>6</v>
+      </c>
+      <c r="G21" s="9">
+        <v>9</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9">
+        <v>27</v>
+      </c>
+      <c r="J21" s="9">
+        <v>5432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="11">
+        <v>7</v>
+      </c>
+      <c r="F23" s="11">
+        <v>7</v>
+      </c>
+      <c r="G23" s="11">
+        <v>5</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11">
+        <v>175</v>
+      </c>
+      <c r="J23" s="11">
+        <v>17629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="11">
+        <v>9</v>
+      </c>
+      <c r="F24" s="11">
+        <v>3</v>
+      </c>
+      <c r="G24" s="11">
+        <v>9</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11">
+        <v>190</v>
+      </c>
+      <c r="J24" s="11">
+        <v>20418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="11">
+        <v>10</v>
+      </c>
+      <c r="F25" s="11">
+        <v>2</v>
+      </c>
+      <c r="G25" s="11">
+        <v>8</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11">
+        <v>261</v>
+      </c>
+      <c r="J25" s="11">
+        <v>37137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="11">
+        <v>7</v>
+      </c>
+      <c r="F26" s="11">
+        <v>3</v>
+      </c>
+      <c r="G26" s="11">
+        <v>11</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11">
+        <v>204</v>
+      </c>
+      <c r="J26" s="11">
+        <v>14735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>2</v>
+      </c>
+      <c r="G27" s="11">
+        <v>15</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11">
+        <v>35</v>
+      </c>
+      <c r="J27" s="11">
+        <v>6579</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="9">
+        <v>4</v>
+      </c>
+      <c r="F30" s="9">
+        <v>9</v>
+      </c>
+      <c r="G30" s="9">
+        <v>22</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9">
+        <v>140</v>
+      </c>
+      <c r="J30" s="9">
+        <v>36201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="9">
+        <v>11</v>
+      </c>
+      <c r="F31" s="9">
+        <v>7</v>
+      </c>
+      <c r="G31" s="9">
+        <v>18</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9">
+        <v>205</v>
+      </c>
+      <c r="J31" s="9">
+        <v>35060</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="9">
+        <v>14</v>
+      </c>
+      <c r="F32" s="9">
+        <v>4</v>
+      </c>
+      <c r="G32" s="9">
+        <v>12</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9">
+        <v>317</v>
+      </c>
+      <c r="J32" s="9">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="9">
+        <v>12</v>
+      </c>
+      <c r="F33" s="9">
+        <v>4</v>
+      </c>
+      <c r="G33" s="9">
+        <v>16</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9">
+        <v>206</v>
+      </c>
+      <c r="J33" s="9">
+        <v>30663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9">
+        <v>6</v>
+      </c>
+      <c r="G34" s="9">
+        <v>29</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9">
+        <v>24</v>
+      </c>
+      <c r="J34" s="9">
+        <v>7681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="11">
+        <v>5</v>
+      </c>
+      <c r="F36" s="11">
+        <v>11</v>
+      </c>
+      <c r="G36" s="11">
+        <v>11</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11">
+        <v>148</v>
+      </c>
+      <c r="J36" s="11">
+        <v>23435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="11">
+        <v>5</v>
+      </c>
+      <c r="F37" s="11">
+        <v>7</v>
+      </c>
+      <c r="G37" s="11">
+        <v>14</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11">
+        <v>177</v>
+      </c>
+      <c r="J37" s="11">
+        <v>21307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="11">
+        <v>7</v>
+      </c>
+      <c r="F38" s="11">
+        <v>10</v>
+      </c>
+      <c r="G38" s="11">
+        <v>6</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11">
+        <v>193</v>
+      </c>
+      <c r="J38" s="11">
+        <v>50561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="11">
+        <v>11</v>
+      </c>
+      <c r="F39" s="11">
+        <v>6</v>
+      </c>
+      <c r="G39" s="11">
+        <v>7</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11">
+        <v>252</v>
+      </c>
+      <c r="J39" s="11">
+        <v>39419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11">
+        <v>9</v>
+      </c>
+      <c r="G40" s="11">
+        <v>12</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11">
+        <v>31</v>
+      </c>
+      <c r="J40" s="11">
+        <v>8621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="B44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+      <c r="B45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
+      <c r="B52" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="13"/>
+      <c r="B53" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>